--- a/runs/run399/NotionalETEOutput399.xlsx
+++ b/runs/run399/NotionalETEOutput399.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX0_State_Update</t>
+    <t>Missile_SOMERSAULT3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0_296.MISSILE_ANGERMAX0_296</t>
+    <t>MISSILE_SOMERSAULT3_302.MISSILE_SOMERSAULT3_302</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0</t>
+    <t>MISSILE_SOMERSAULT3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1453.574012144822</v>
+        <v>-1501.857350472965</v>
       </c>
       <c r="J2">
-        <v>2079.626426976347</v>
+        <v>1992.624702727407</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1429.845506871562</v>
+        <v>-1469.101625119955</v>
       </c>
       <c r="J3">
-        <v>1872.491277467551</v>
+        <v>1873.927143841982</v>
       </c>
       <c r="K3">
-        <v>318.8018524318441</v>
+        <v>296.5650708657548</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1412.22414957824</v>
+        <v>-1505.16532846265</v>
       </c>
       <c r="J4">
-        <v>1818.19513228593</v>
+        <v>1981.339717576143</v>
       </c>
       <c r="K4">
-        <v>599.9520842809795</v>
+        <v>573.0167554934133</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1367.237963893463</v>
+        <v>-1471.750988304912</v>
       </c>
       <c r="J5">
-        <v>1939.162569926372</v>
+        <v>1833.912563501211</v>
       </c>
       <c r="K5">
-        <v>853.7805997182113</v>
+        <v>859.9775581551593</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1309.278981338442</v>
+        <v>-1377.390541440902</v>
       </c>
       <c r="J6">
-        <v>1885.038170055755</v>
+        <v>1738.306092459261</v>
       </c>
       <c r="K6">
-        <v>1122.140677316718</v>
+        <v>1122.427004299353</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1324.824386880572</v>
+        <v>-1366.605194653618</v>
       </c>
       <c r="J7">
-        <v>1736.238029584568</v>
+        <v>1715.378823818751</v>
       </c>
       <c r="K7">
-        <v>1327.731555374834</v>
+        <v>1361.62251616968</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1310.82933605323</v>
+        <v>-1318.700504033593</v>
       </c>
       <c r="J8">
-        <v>1662.237556625629</v>
+        <v>1640.626949748344</v>
       </c>
       <c r="K8">
-        <v>1658.798100714153</v>
+        <v>1636.132548850601</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-104.6646163152325</v>
+        <v>-100.2909891110934</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1289.465257138008</v>
+        <v>-1235.585157957729</v>
       </c>
       <c r="J9">
-        <v>1578.98842463525</v>
+        <v>1582.211392526017</v>
       </c>
       <c r="K9">
-        <v>1750.745585279924</v>
+        <v>1864.887243257388</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>209.1370598349637</v>
+        <v>212.1519264589878</v>
       </c>
       <c r="G10">
-        <v>-81.31015558459744</v>
+        <v>-85.39962140503643</v>
       </c>
       <c r="H10">
-        <v>897.7409583932919</v>
+        <v>870.0022676900626</v>
       </c>
       <c r="I10">
-        <v>-1276.363570057839</v>
+        <v>-1266.701885117542</v>
       </c>
       <c r="J10">
-        <v>1575.33706897231</v>
+        <v>1628.070965262245</v>
       </c>
       <c r="K10">
-        <v>1915.127895595311</v>
+        <v>2036.319064273877</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>166.7661317832756</v>
+        <v>167.3465613124698</v>
       </c>
       <c r="G11">
-        <v>-66.39043085984484</v>
+        <v>-69.88617257609157</v>
       </c>
       <c r="H11">
-        <v>1007.525963412262</v>
+        <v>1048.443784545081</v>
       </c>
       <c r="I11">
-        <v>-1265.783712549504</v>
+        <v>-1159.396869847526</v>
       </c>
       <c r="J11">
-        <v>1545.101218956592</v>
+        <v>1607.573791590718</v>
       </c>
       <c r="K11">
-        <v>2120.113614259974</v>
+        <v>2266.368155896675</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>135.5413712141265</v>
+        <v>142.6728665171528</v>
       </c>
       <c r="G12">
-        <v>-48.74437084788769</v>
+        <v>-51.50686696074688</v>
       </c>
       <c r="H12">
-        <v>1180.296036460024</v>
+        <v>1207.153856757889</v>
       </c>
       <c r="I12">
-        <v>-1132.571395681962</v>
+        <v>-1157.587449013863</v>
       </c>
       <c r="J12">
-        <v>1507.758158655641</v>
+        <v>1583.314267893736</v>
       </c>
       <c r="K12">
-        <v>2462.215952296996</v>
+        <v>2304.861329325209</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>119.8327060861852</v>
+        <v>116.2586169837305</v>
       </c>
       <c r="G13">
-        <v>-34.72065081979898</v>
+        <v>-32.9603126969189</v>
       </c>
       <c r="H13">
-        <v>1321.494921422352</v>
+        <v>1276.789994678696</v>
       </c>
       <c r="I13">
-        <v>-1129.697564488951</v>
+        <v>-1112.894381684455</v>
       </c>
       <c r="J13">
-        <v>1432.155346407309</v>
+        <v>1431.639860874787</v>
       </c>
       <c r="K13">
-        <v>2484.491174026708</v>
+        <v>2384.31403068368</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>112.8484318646856</v>
+        <v>105.4334966747956</v>
       </c>
       <c r="G14">
-        <v>-16.96340665414787</v>
+        <v>-17.96149720865593</v>
       </c>
       <c r="H14">
-        <v>1366.87842523615</v>
+        <v>1310.53224274025</v>
       </c>
       <c r="I14">
-        <v>-1079.231502581393</v>
+        <v>-1058.273662494758</v>
       </c>
       <c r="J14">
-        <v>1406.206225184249</v>
+        <v>1402.376247374336</v>
       </c>
       <c r="K14">
-        <v>2616.550203876824</v>
+        <v>2533.834906734431</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>99.88250379295707</v>
+        <v>98.0295584780396</v>
       </c>
       <c r="G15">
-        <v>-0.9072006198508081</v>
+        <v>-0.9270162659522938</v>
       </c>
       <c r="H15">
-        <v>1358.115658094247</v>
+        <v>1339.774225074536</v>
       </c>
       <c r="I15">
-        <v>-1091.840201203068</v>
+        <v>-1076.134498972255</v>
       </c>
       <c r="J15">
-        <v>1390.473675241094</v>
+        <v>1413.438570455339</v>
       </c>
       <c r="K15">
-        <v>2857.734076388226</v>
+        <v>2808.206465556909</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>92.07647052279779</v>
+        <v>95.37304846404133</v>
       </c>
       <c r="G16">
-        <v>15.93680635965679</v>
+        <v>15.43028707416881</v>
       </c>
       <c r="H16">
-        <v>1446.504627673658</v>
+        <v>1460.216339484349</v>
       </c>
       <c r="I16">
-        <v>-1045.83519018306</v>
+        <v>-971.2322606241852</v>
       </c>
       <c r="J16">
-        <v>1317.332233439876</v>
+        <v>1376.464403146045</v>
       </c>
       <c r="K16">
-        <v>2778.934743743823</v>
+        <v>2978.756248912513</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>84.38048223617126</v>
+        <v>82.55303404267397</v>
       </c>
       <c r="G17">
-        <v>33.04483769523758</v>
+        <v>33.57538612565587</v>
       </c>
       <c r="H17">
-        <v>1445.966734565317</v>
+        <v>1441.925701622131</v>
       </c>
       <c r="I17">
-        <v>-992.9086610200768</v>
+        <v>-991.6911177978684</v>
       </c>
       <c r="J17">
-        <v>1227.164494038442</v>
+        <v>1216.272896755614</v>
       </c>
       <c r="K17">
-        <v>2879.395571857729</v>
+        <v>3104.749968918119</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>79.86937138442093</v>
+        <v>84.87702193704941</v>
       </c>
       <c r="G18">
-        <v>49.81825030304996</v>
+        <v>50.07448936966219</v>
       </c>
       <c r="H18">
-        <v>1540.082650605013</v>
+        <v>1469.738287941133</v>
       </c>
       <c r="I18">
-        <v>-944.0737329491089</v>
+        <v>-887.9544983999846</v>
       </c>
       <c r="J18">
-        <v>1169.822941808503</v>
+        <v>1240.335830605909</v>
       </c>
       <c r="K18">
-        <v>3103.576813120978</v>
+        <v>2891.601478203522</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>76.19845505555388</v>
+        <v>80.35128251259798</v>
       </c>
       <c r="G19">
-        <v>66.8729985813311</v>
+        <v>66.03261513980205</v>
       </c>
       <c r="H19">
-        <v>1605.476749785941</v>
+        <v>1566.079815990734</v>
       </c>
       <c r="I19">
-        <v>-875.5675839534565</v>
+        <v>-861.8099129600221</v>
       </c>
       <c r="J19">
-        <v>1194.466952626202</v>
+        <v>1136.050871347635</v>
       </c>
       <c r="K19">
-        <v>3216.613865796504</v>
+        <v>3033.517990443446</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>76.98811553548094</v>
+        <v>74.75258874047753</v>
       </c>
       <c r="G20">
-        <v>78.09017351543832</v>
+        <v>80.40203079224284</v>
       </c>
       <c r="H20">
-        <v>1507.442595803954</v>
+        <v>1571.951594966901</v>
       </c>
       <c r="I20">
-        <v>-872.2384166059188</v>
+        <v>-808.1246211705984</v>
       </c>
       <c r="J20">
-        <v>1145.920816273921</v>
+        <v>1126.58631062782</v>
       </c>
       <c r="K20">
-        <v>3064.176129774613</v>
+        <v>3058.303727409478</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.73881503020947</v>
+        <v>68.2524818420053</v>
       </c>
       <c r="G21">
-        <v>99.59365108689133</v>
+        <v>94.12658071888475</v>
       </c>
       <c r="H21">
-        <v>1566.197626346228</v>
+        <v>1600.903148351287</v>
       </c>
       <c r="I21">
-        <v>-810.6373238741353</v>
+        <v>-830.4578308109983</v>
       </c>
       <c r="J21">
-        <v>1075.224189796407</v>
+        <v>1049.779234618747</v>
       </c>
       <c r="K21">
-        <v>3291.246230689261</v>
+        <v>3261.834868041273</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>67.41424834505385</v>
+        <v>64.95497164668834</v>
       </c>
       <c r="G22">
-        <v>111.956164967035</v>
+        <v>111.5869843717288</v>
       </c>
       <c r="H22">
-        <v>1602.878245848269</v>
+        <v>1687.33720629944</v>
       </c>
       <c r="I22">
-        <v>-783.5319831765668</v>
+        <v>-734.6013766009372</v>
       </c>
       <c r="J22">
-        <v>995.4671443582213</v>
+        <v>1000.570025276895</v>
       </c>
       <c r="K22">
-        <v>3187.882781120334</v>
+        <v>3276.084888864804</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.65861073268643</v>
+        <v>67.539151569897</v>
       </c>
       <c r="G23">
-        <v>128.4409706418784</v>
+        <v>130.2703945444138</v>
       </c>
       <c r="H23">
-        <v>1699.983302425849</v>
+        <v>1590.514842845437</v>
       </c>
       <c r="I23">
-        <v>-688.4889936479748</v>
+        <v>-679.6684179270404</v>
       </c>
       <c r="J23">
-        <v>1020.739489938967</v>
+        <v>980.5582251656772</v>
       </c>
       <c r="K23">
-        <v>3350.506893521773</v>
+        <v>3343.492888601888</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.94853457738346</v>
+        <v>62.22960799025246</v>
       </c>
       <c r="G24">
-        <v>147.8553911765304</v>
+        <v>150.4054685809653</v>
       </c>
       <c r="H24">
-        <v>1704.612818694842</v>
+        <v>1721.202712431454</v>
       </c>
       <c r="I24">
-        <v>-680.0608997186152</v>
+        <v>-628.2367231800965</v>
       </c>
       <c r="J24">
-        <v>941.0538211128752</v>
+        <v>972.9972984064807</v>
       </c>
       <c r="K24">
-        <v>3331.824730296089</v>
+        <v>3227.15501321097</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.95830411150331</v>
+        <v>63.39803761406701</v>
       </c>
       <c r="G25">
-        <v>158.4061512826248</v>
+        <v>171.5758841569659</v>
       </c>
       <c r="H25">
-        <v>1660.56228987817</v>
+        <v>1673.749831842928</v>
       </c>
       <c r="I25">
-        <v>-591.7234125805179</v>
+        <v>-590.5488270937107</v>
       </c>
       <c r="J25">
-        <v>881.9587841987855</v>
+        <v>838.1885372745824</v>
       </c>
       <c r="K25">
-        <v>3310.392896619998</v>
+        <v>3188.945934896727</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>59.3791550765233</v>
+        <v>57.51849593380137</v>
       </c>
       <c r="G26">
-        <v>189.5142710594787</v>
+        <v>182.496613446632</v>
       </c>
       <c r="H26">
-        <v>1636.441501517851</v>
+        <v>1684.133422329924</v>
       </c>
       <c r="I26">
-        <v>-564.9223706269304</v>
+        <v>-558.0308100189321</v>
       </c>
       <c r="J26">
-        <v>794.9942176187418</v>
+        <v>817.9659994280338</v>
       </c>
       <c r="K26">
-        <v>3211.581424710322</v>
+        <v>3147.482676589613</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>55.79193800972638</v>
+        <v>60.59407774170324</v>
       </c>
       <c r="G27">
-        <v>198.6865892644287</v>
+        <v>191.3529984965173</v>
       </c>
       <c r="H27">
-        <v>1634.915090940819</v>
+        <v>1723.692047175285</v>
       </c>
       <c r="I27">
-        <v>-480.4087549853372</v>
+        <v>-493.9616992987065</v>
       </c>
       <c r="J27">
-        <v>790.9573797782034</v>
+        <v>807.7925850847261</v>
       </c>
       <c r="K27">
-        <v>2993.081291636996</v>
+        <v>2965.748511835357</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>56.36175065323339</v>
+        <v>57.89037141585428</v>
       </c>
       <c r="G28">
-        <v>216.3430278197023</v>
+        <v>209.2274752626255</v>
       </c>
       <c r="H28">
-        <v>1747.295285294738</v>
+        <v>1810.770885272953</v>
       </c>
       <c r="I28">
-        <v>-429.7973133527418</v>
+        <v>-437.2896401006226</v>
       </c>
       <c r="J28">
-        <v>726.0283217061053</v>
+        <v>699.2464185383972</v>
       </c>
       <c r="K28">
-        <v>2961.403077637178</v>
+        <v>3040.968659228032</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.66785430738646</v>
+        <v>57.7441388924648</v>
       </c>
       <c r="G29">
-        <v>223.311802818013</v>
+        <v>238.4612672797466</v>
       </c>
       <c r="H29">
-        <v>1669.332954595284</v>
+        <v>1813.191189665311</v>
       </c>
       <c r="I29">
-        <v>-385.6642168969565</v>
+        <v>-386.2374905235045</v>
       </c>
       <c r="J29">
-        <v>680.2976581050331</v>
+        <v>678.7392097025535</v>
       </c>
       <c r="K29">
-        <v>3017.255169581595</v>
+        <v>2931.068219933725</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.95440912449809</v>
+        <v>53.79596876663329</v>
       </c>
       <c r="G30">
-        <v>236.7937560558699</v>
+        <v>250.045317391175</v>
       </c>
       <c r="H30">
-        <v>1814.612368444113</v>
+        <v>1693.597641630493</v>
       </c>
       <c r="I30">
-        <v>-340.6358064073837</v>
+        <v>-337.4555804967126</v>
       </c>
       <c r="J30">
-        <v>646.7042709803206</v>
+        <v>666.7404765338883</v>
       </c>
       <c r="K30">
-        <v>2901.069382667805</v>
+        <v>2817.294889407011</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.22594094019884</v>
+        <v>52.04411102149956</v>
       </c>
       <c r="G31">
-        <v>276.3812540548968</v>
+        <v>273.0572855977461</v>
       </c>
       <c r="H31">
-        <v>1775.660129895686</v>
+        <v>1724.444641190454</v>
       </c>
       <c r="I31">
-        <v>-266.2908712359993</v>
+        <v>-255.6694864789973</v>
       </c>
       <c r="J31">
-        <v>614.8627694041511</v>
+        <v>562.4211744346346</v>
       </c>
       <c r="K31">
-        <v>2598.800005329977</v>
+        <v>2736.406330399248</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.78209795305375</v>
+        <v>50.62573057455911</v>
       </c>
       <c r="G32">
-        <v>277.1265488304976</v>
+        <v>276.7292758372384</v>
       </c>
       <c r="H32">
-        <v>1829.420840751105</v>
+        <v>1784.219537534608</v>
       </c>
       <c r="I32">
-        <v>-208.2031610944483</v>
+        <v>-215.2220352046406</v>
       </c>
       <c r="J32">
-        <v>547.4554956313264</v>
+        <v>531.4935267374375</v>
       </c>
       <c r="K32">
-        <v>2534.136357015543</v>
+        <v>2412.644018491725</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>52.61806031491147</v>
+        <v>51.13574744952452</v>
       </c>
       <c r="G33">
-        <v>293.7467640081809</v>
+        <v>300.6561437929925</v>
       </c>
       <c r="H33">
-        <v>1813.251799315517</v>
+        <v>1852.355620185032</v>
       </c>
       <c r="I33">
-        <v>-153.3180936157236</v>
+        <v>-152.5074411419172</v>
       </c>
       <c r="J33">
-        <v>509.2990401342675</v>
+        <v>478.1616237408261</v>
       </c>
       <c r="K33">
-        <v>2267.664054306697</v>
+        <v>2414.123404199477</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.9985025542478</v>
+        <v>51.34770951002028</v>
       </c>
       <c r="G34">
-        <v>303.1383852832902</v>
+        <v>309.5145093658107</v>
       </c>
       <c r="H34">
-        <v>1837.232106975212</v>
+        <v>1870.18150554768</v>
       </c>
       <c r="I34">
-        <v>-79.58169212095729</v>
+        <v>-84.71291458178949</v>
       </c>
       <c r="J34">
-        <v>425.0512690930989</v>
+        <v>449.2952416328486</v>
       </c>
       <c r="K34">
-        <v>2173.27101769303</v>
+        <v>2240.220023493835</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.11168087528885</v>
+        <v>45.86158733375328</v>
       </c>
       <c r="G35">
-        <v>329.1748225251358</v>
+        <v>345.4005447617027</v>
       </c>
       <c r="H35">
-        <v>1892.120790481328</v>
+        <v>1899.889188674645</v>
       </c>
       <c r="I35">
-        <v>-18.63945955818559</v>
+        <v>-19.03509804209264</v>
       </c>
       <c r="J35">
-        <v>398.6521693378766</v>
+        <v>390.71066525073</v>
       </c>
       <c r="K35">
-        <v>1972.756218040144</v>
+        <v>1964.793260099884</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.52634736728371</v>
+        <v>49.06584371516199</v>
       </c>
       <c r="G36">
-        <v>354.8988497852372</v>
+        <v>356.6255133796603</v>
       </c>
       <c r="H36">
-        <v>1803.896202634341</v>
+        <v>1831.497764797954</v>
       </c>
       <c r="I36">
-        <v>49.13293342265359</v>
+        <v>45.88566517211189</v>
       </c>
       <c r="J36">
-        <v>352.8873681571546</v>
+        <v>343.7912336595971</v>
       </c>
       <c r="K36">
-        <v>1907.894387717322</v>
+        <v>1840.749124799262</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.44830827037913</v>
+        <v>46.73386874114517</v>
       </c>
       <c r="G37">
-        <v>357.6841505797827</v>
+        <v>374.4713338594065</v>
       </c>
       <c r="H37">
-        <v>1761.725009598093</v>
+        <v>1874.148393448727</v>
       </c>
       <c r="I37">
-        <v>114.6463748419383</v>
+        <v>109.9041688913914</v>
       </c>
       <c r="J37">
-        <v>310.9326921201554</v>
+        <v>308.9639384112407</v>
       </c>
       <c r="K37">
-        <v>1687.838072532457</v>
+        <v>1580.657845111932</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.6763248362207</v>
+        <v>44.07710601011784</v>
       </c>
       <c r="G38">
-        <v>387.3710447347462</v>
+        <v>390.6957040727561</v>
       </c>
       <c r="H38">
-        <v>1801.050277063315</v>
+        <v>1762.114709934929</v>
       </c>
       <c r="I38">
-        <v>184.6363348362667</v>
+        <v>192.5676972662637</v>
       </c>
       <c r="J38">
-        <v>258.6097384054959</v>
+        <v>242.2779350522136</v>
       </c>
       <c r="K38">
-        <v>1358.448077807036</v>
+        <v>1442.99003557774</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.71295235410755</v>
+        <v>44.12728901179732</v>
       </c>
       <c r="G39">
-        <v>398.5411384194466</v>
+        <v>413.9479278316376</v>
       </c>
       <c r="H39">
-        <v>1796.806356093547</v>
+        <v>1877.489151983261</v>
       </c>
       <c r="I39">
-        <v>259.0470803304802</v>
+        <v>245.1899886112351</v>
       </c>
       <c r="J39">
-        <v>200.8376134449534</v>
+        <v>196.2582001067971</v>
       </c>
       <c r="K39">
-        <v>1179.798962932465</v>
+        <v>1107.199731925396</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.60655113625945</v>
+        <v>42.55381392987665</v>
       </c>
       <c r="G40">
-        <v>398.8836034828196</v>
+        <v>420.9932812707779</v>
       </c>
       <c r="H40">
-        <v>1883.404478715168</v>
+        <v>1786.215035488974</v>
       </c>
       <c r="I40">
-        <v>340.5567670413335</v>
+        <v>322.7414603521716</v>
       </c>
       <c r="J40">
-        <v>155.3745794480411</v>
+        <v>155.375368135211</v>
       </c>
       <c r="K40">
-        <v>887.5566763610921</v>
+        <v>895.1923108506905</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.73306429700714</v>
+        <v>43.64806475810327</v>
       </c>
       <c r="G41">
-        <v>441.0230931155793</v>
+        <v>425.6806237404055</v>
       </c>
       <c r="H41">
-        <v>1788.879877685889</v>
+        <v>1907.02018675198</v>
       </c>
       <c r="I41">
-        <v>383.240625525796</v>
+        <v>416.9091431498892</v>
       </c>
       <c r="J41">
-        <v>99.44608155387014</v>
+        <v>105.778994763881</v>
       </c>
       <c r="K41">
-        <v>642.3681472031615</v>
+        <v>597.024350607248</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.78112548977282</v>
+        <v>43.04367816530301</v>
       </c>
       <c r="G42">
-        <v>430.7522907826346</v>
+        <v>440.3870277359371</v>
       </c>
       <c r="H42">
-        <v>1919.492627018908</v>
+        <v>1966.540774081116</v>
       </c>
       <c r="I42">
-        <v>455.5980400773356</v>
+        <v>499.7047951320388</v>
       </c>
       <c r="J42">
-        <v>53.33071966957936</v>
+        <v>51.30966341515435</v>
       </c>
       <c r="K42">
-        <v>327.0961920150925</v>
+        <v>327.7566310524749</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.91172303681089</v>
+        <v>40.56559643495824</v>
       </c>
       <c r="G43">
-        <v>450.3861143043571</v>
+        <v>471.2040781565212</v>
       </c>
       <c r="H43">
-        <v>1938.208190880687</v>
+        <v>1855.856591915297</v>
       </c>
       <c r="I43">
-        <v>530.3488148253221</v>
+        <v>581.8160575254172</v>
       </c>
       <c r="J43">
-        <v>5.377119781081533</v>
+        <v>5.236048165951567</v>
       </c>
       <c r="K43">
-        <v>33.39367124042698</v>
+        <v>33.90303157723758</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>39.80625586680395</v>
+        <v>40.42367481906084</v>
       </c>
       <c r="G44">
-        <v>488.4112957661858</v>
+        <v>483.7174401417155</v>
       </c>
       <c r="H44">
-        <v>1947.062800989069</v>
+        <v>1881.57224844128</v>
       </c>
       <c r="I44">
-        <v>613.8180062728036</v>
+        <v>663.5306791474873</v>
       </c>
       <c r="J44">
-        <v>-42.31365214180966</v>
+        <v>-42.58396561139832</v>
       </c>
       <c r="K44">
-        <v>-270.4247003710877</v>
+        <v>-283.0979687735735</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.74541712835271</v>
+        <v>39.27345556631671</v>
       </c>
       <c r="G45">
-        <v>494.1272068121787</v>
+        <v>469.9444884736411</v>
       </c>
       <c r="H45">
-        <v>1951.04107228963</v>
+        <v>1855.222230878404</v>
       </c>
       <c r="I45">
-        <v>753.3220741104333</v>
+        <v>754.4966374359082</v>
       </c>
       <c r="J45">
-        <v>-95.22501453976334</v>
+        <v>-90.40648647920982</v>
       </c>
       <c r="K45">
-        <v>-610.2655954789681</v>
+        <v>-638.744833570213</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.86294415683172</v>
+        <v>40.10685227412448</v>
       </c>
       <c r="G46">
-        <v>507.0594582851488</v>
+        <v>510.2904251190395</v>
       </c>
       <c r="H46">
-        <v>1897.803304185904</v>
+        <v>1949.191497573994</v>
       </c>
       <c r="I46">
-        <v>804.983492987633</v>
+        <v>778.6363309769118</v>
       </c>
       <c r="J46">
-        <v>-146.5193802411416</v>
+        <v>-143.4562021576337</v>
       </c>
       <c r="K46">
-        <v>-927.9378632526166</v>
+        <v>-998.8309595373182</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.95838772276851</v>
+        <v>39.18547443405732</v>
       </c>
       <c r="G47">
-        <v>536.4509411952731</v>
+        <v>536.7863744392988</v>
       </c>
       <c r="H47">
-        <v>2018.554296428781</v>
+        <v>1873.33936444463</v>
       </c>
       <c r="I47">
-        <v>890.1090403231369</v>
+        <v>882.3382249162048</v>
       </c>
       <c r="J47">
-        <v>-191.4804330183739</v>
+        <v>-188.581213902658</v>
       </c>
       <c r="K47">
-        <v>-1290.678088577254</v>
+        <v>-1316.603480071693</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.74371633192411</v>
+        <v>41.24302436021119</v>
       </c>
       <c r="G48">
-        <v>558.3374337460194</v>
+        <v>542.3932768409479</v>
       </c>
       <c r="H48">
-        <v>1854.664855011464</v>
+        <v>2030.756618978273</v>
       </c>
       <c r="I48">
-        <v>968.961802323246</v>
+        <v>931.0188360954045</v>
       </c>
       <c r="J48">
-        <v>-246.7474905207546</v>
+        <v>-232.375836033659</v>
       </c>
       <c r="K48">
-        <v>-1786.353769798262</v>
+        <v>-1736.22712860907</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.6153749931747</v>
+        <v>37.46914673451382</v>
       </c>
       <c r="G49">
-        <v>537.6379267737932</v>
+        <v>541.9370210732507</v>
       </c>
       <c r="H49">
-        <v>1987.427933915713</v>
+        <v>2016.984415277329</v>
       </c>
       <c r="I49">
-        <v>1077.299421915036</v>
+        <v>1084.141104538577</v>
       </c>
       <c r="J49">
-        <v>-282.2777331362772</v>
+        <v>-278.8135560895728</v>
       </c>
       <c r="K49">
-        <v>-2074.811981056561</v>
+        <v>-2132.578744418925</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.49132426629844</v>
+        <v>38.07904271300581</v>
       </c>
       <c r="G50">
-        <v>584.8687743996707</v>
+        <v>591.9278046891787</v>
       </c>
       <c r="H50">
-        <v>1971.383703964637</v>
+        <v>1879.379043201165</v>
       </c>
       <c r="I50">
-        <v>1116.464424013838</v>
+        <v>1106.106168071562</v>
       </c>
       <c r="J50">
-        <v>-351.4295629776292</v>
+        <v>-343.2575215543562</v>
       </c>
       <c r="K50">
-        <v>-2460.032609685776</v>
+        <v>-2624.178786278937</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.72846703071649</v>
+        <v>37.76158093671742</v>
       </c>
       <c r="G51">
-        <v>596.5088054199988</v>
+        <v>597.0575559520762</v>
       </c>
       <c r="H51">
-        <v>1950.619545894061</v>
+        <v>1945.545794631766</v>
       </c>
       <c r="I51">
-        <v>1225.670330391504</v>
+        <v>1282.096075311577</v>
       </c>
       <c r="J51">
-        <v>-366.8742727105459</v>
+        <v>-368.0342000976115</v>
       </c>
       <c r="K51">
-        <v>-3057.707118752382</v>
+        <v>-2990.213536603978</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.11492731967702</v>
+        <v>38.4512737555504</v>
       </c>
       <c r="G52">
-        <v>600.4547558188714</v>
+        <v>623.398281991541</v>
       </c>
       <c r="H52">
-        <v>2028.760491307921</v>
+        <v>1991.060648797345</v>
       </c>
       <c r="I52">
-        <v>1350.219049192363</v>
+        <v>1317.908790760395</v>
       </c>
       <c r="J52">
-        <v>-449.8664801241153</v>
+        <v>-423.7671325304775</v>
       </c>
       <c r="K52">
-        <v>-3440.741858637641</v>
+        <v>-3202.517883026253</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.73107315747738</v>
+        <v>36.9860297714249</v>
       </c>
       <c r="G53">
-        <v>631.0165884651603</v>
+        <v>630.4487285860215</v>
       </c>
       <c r="H53">
-        <v>1990.3470963761</v>
+        <v>2031.021283537639</v>
       </c>
       <c r="I53">
-        <v>1507.679151501883</v>
+        <v>1494.282231992951</v>
       </c>
       <c r="J53">
-        <v>-488.286955130726</v>
+        <v>-488.4979764032075</v>
       </c>
       <c r="K53">
-        <v>-3941.700885199559</v>
+        <v>-3660.183935672645</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.40614524628358</v>
+        <v>35.987367704528</v>
       </c>
       <c r="G54">
-        <v>616.2948240673555</v>
+        <v>637.1541831014985</v>
       </c>
       <c r="H54">
-        <v>1983.100094439536</v>
+        <v>1914.654926563467</v>
       </c>
       <c r="I54">
-        <v>1573.030338854496</v>
+        <v>1539.657029083288</v>
       </c>
       <c r="J54">
-        <v>-507.8663831357194</v>
+        <v>-512.9767237490729</v>
       </c>
       <c r="K54">
-        <v>-4196.886121122016</v>
+        <v>-4104.198592439943</v>
       </c>
     </row>
   </sheetData>
